--- a/export/MND_export.xlsx
+++ b/export/MND_export.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G153"/>
+  <dimension ref="A1:G123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -436,13 +436,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B2">
         <v>2023</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -459,13 +459,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3">
-        <v>45232</v>
+        <v>45262</v>
       </c>
       <c r="B3">
         <v>2023</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -482,13 +482,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3">
-        <v>45233</v>
+        <v>45263</v>
       </c>
       <c r="B4">
         <v>2023</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -505,13 +505,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3">
-        <v>45234</v>
+        <v>45264</v>
       </c>
       <c r="B5">
         <v>2023</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -528,13 +528,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3">
-        <v>45235</v>
+        <v>45265</v>
       </c>
       <c r="B6">
         <v>2023</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -551,13 +551,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3">
-        <v>45236</v>
+        <v>45266</v>
       </c>
       <c r="B7">
         <v>2023</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -574,13 +574,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="3">
-        <v>45237</v>
+        <v>45267</v>
       </c>
       <c r="B8">
         <v>2023</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -597,13 +597,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3">
-        <v>45238</v>
+        <v>45268</v>
       </c>
       <c r="B9">
         <v>2023</v>
       </c>
       <c r="C9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -620,13 +620,13 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="3">
-        <v>45239</v>
+        <v>45269</v>
       </c>
       <c r="B10">
         <v>2023</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -643,13 +643,13 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="3">
-        <v>45240</v>
+        <v>45270</v>
       </c>
       <c r="B11">
         <v>2023</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -666,13 +666,13 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="3">
-        <v>45241</v>
+        <v>45271</v>
       </c>
       <c r="B12">
         <v>2023</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -689,13 +689,13 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="3">
-        <v>45242</v>
+        <v>45272</v>
       </c>
       <c r="B13">
         <v>2023</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -712,13 +712,13 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="3">
-        <v>45243</v>
+        <v>45273</v>
       </c>
       <c r="B14">
         <v>2023</v>
       </c>
       <c r="C14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -735,13 +735,13 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="3">
-        <v>45244</v>
+        <v>45274</v>
       </c>
       <c r="B15">
         <v>2023</v>
       </c>
       <c r="C15">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -758,13 +758,13 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="3">
-        <v>45245</v>
+        <v>45275</v>
       </c>
       <c r="B16">
         <v>2023</v>
       </c>
       <c r="C16">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -781,13 +781,13 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="3">
-        <v>45246</v>
+        <v>45276</v>
       </c>
       <c r="B17">
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -804,13 +804,13 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3">
-        <v>45247</v>
+        <v>45277</v>
       </c>
       <c r="B18">
         <v>2023</v>
       </c>
       <c r="C18">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -827,13 +827,13 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3">
-        <v>45248</v>
+        <v>45278</v>
       </c>
       <c r="B19">
         <v>2023</v>
       </c>
       <c r="C19">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -850,13 +850,13 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3">
-        <v>45249</v>
+        <v>45279</v>
       </c>
       <c r="B20">
         <v>2023</v>
       </c>
       <c r="C20">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -873,13 +873,13 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3">
-        <v>45250</v>
+        <v>45280</v>
       </c>
       <c r="B21">
         <v>2023</v>
       </c>
       <c r="C21">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -896,13 +896,13 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3">
-        <v>45251</v>
+        <v>45281</v>
       </c>
       <c r="B22">
         <v>2023</v>
       </c>
       <c r="C22">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -919,13 +919,13 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3">
-        <v>45252</v>
+        <v>45282</v>
       </c>
       <c r="B23">
         <v>2023</v>
       </c>
       <c r="C23">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -942,13 +942,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3">
-        <v>45253</v>
+        <v>45283</v>
       </c>
       <c r="B24">
         <v>2023</v>
       </c>
       <c r="C24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -965,13 +965,13 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3">
-        <v>45254</v>
+        <v>45284</v>
       </c>
       <c r="B25">
         <v>2023</v>
       </c>
       <c r="C25">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -988,13 +988,13 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3">
-        <v>45255</v>
+        <v>45285</v>
       </c>
       <c r="B26">
         <v>2023</v>
       </c>
       <c r="C26">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1011,13 +1011,13 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3">
-        <v>45256</v>
+        <v>45286</v>
       </c>
       <c r="B27">
         <v>2023</v>
       </c>
       <c r="C27">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1034,13 +1034,13 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3">
-        <v>45257</v>
+        <v>45287</v>
       </c>
       <c r="B28">
         <v>2023</v>
       </c>
       <c r="C28">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1057,13 +1057,13 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="3">
-        <v>45258</v>
+        <v>45288</v>
       </c>
       <c r="B29">
         <v>2023</v>
       </c>
       <c r="C29">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1080,13 +1080,13 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="3">
-        <v>45259</v>
+        <v>45289</v>
       </c>
       <c r="B30">
         <v>2023</v>
       </c>
       <c r="C30">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1103,13 +1103,13 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="3">
-        <v>45260</v>
+        <v>45290</v>
       </c>
       <c r="B31">
         <v>2023</v>
       </c>
       <c r="C31">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1126,7 +1126,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="3">
-        <v>45261</v>
+        <v>45291</v>
       </c>
       <c r="B32">
         <v>2023</v>
@@ -1149,13 +1149,13 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="3">
-        <v>45262</v>
+        <v>45292</v>
       </c>
       <c r="B33">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C33">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1172,13 +1172,13 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="3">
-        <v>45263</v>
+        <v>45293</v>
       </c>
       <c r="B34">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C34">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1195,13 +1195,13 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="3">
-        <v>45264</v>
+        <v>45294</v>
       </c>
       <c r="B35">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C35">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1218,13 +1218,13 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="3">
-        <v>45265</v>
+        <v>45295</v>
       </c>
       <c r="B36">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C36">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1241,13 +1241,13 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="3">
-        <v>45266</v>
+        <v>45296</v>
       </c>
       <c r="B37">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C37">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1264,13 +1264,13 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="3">
-        <v>45267</v>
+        <v>45297</v>
       </c>
       <c r="B38">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C38">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1287,13 +1287,13 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="3">
-        <v>45268</v>
+        <v>45298</v>
       </c>
       <c r="B39">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C39">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1310,13 +1310,13 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="3">
-        <v>45269</v>
+        <v>45299</v>
       </c>
       <c r="B40">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C40">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1333,13 +1333,13 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="3">
-        <v>45270</v>
+        <v>45300</v>
       </c>
       <c r="B41">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C41">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1356,13 +1356,13 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="3">
-        <v>45271</v>
+        <v>45301</v>
       </c>
       <c r="B42">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C42">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1379,13 +1379,13 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="3">
-        <v>45272</v>
+        <v>45302</v>
       </c>
       <c r="B43">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C43">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1402,13 +1402,13 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="3">
-        <v>45273</v>
+        <v>45303</v>
       </c>
       <c r="B44">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C44">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1425,13 +1425,13 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="3">
-        <v>45274</v>
+        <v>45304</v>
       </c>
       <c r="B45">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C45">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1448,13 +1448,13 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="3">
-        <v>45275</v>
+        <v>45305</v>
       </c>
       <c r="B46">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C46">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1471,13 +1471,13 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="3">
-        <v>45276</v>
+        <v>45306</v>
       </c>
       <c r="B47">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C47">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1494,22 +1494,22 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="3">
-        <v>45277</v>
+        <v>45307</v>
       </c>
       <c r="B48">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C48">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>-905</v>
       </c>
       <c r="E48">
-        <v>55000</v>
+        <v>54095</v>
       </c>
       <c r="F48" s="1">
-        <v>1</v>
+        <v>0.9835454545454545</v>
       </c>
       <c r="G48">
         <v>-917</v>
@@ -1517,22 +1517,22 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="3">
-        <v>45278</v>
+        <v>45308</v>
       </c>
       <c r="B49">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C49">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-917</v>
       </c>
       <c r="E49">
-        <v>55000</v>
+        <v>53178</v>
       </c>
       <c r="F49" s="1">
-        <v>1</v>
+        <v>0.9668727272727273</v>
       </c>
       <c r="G49">
         <v>-917</v>
@@ -1540,22 +1540,22 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="3">
-        <v>45279</v>
+        <v>45309</v>
       </c>
       <c r="B50">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C50">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>-917</v>
       </c>
       <c r="E50">
-        <v>55000</v>
+        <v>52261</v>
       </c>
       <c r="F50" s="1">
-        <v>1</v>
+        <v>0.9502</v>
       </c>
       <c r="G50">
         <v>-917</v>
@@ -1563,22 +1563,22 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="3">
-        <v>45280</v>
+        <v>45310</v>
       </c>
       <c r="B51">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C51">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>-917</v>
       </c>
       <c r="E51">
-        <v>55000</v>
+        <v>51344</v>
       </c>
       <c r="F51" s="1">
-        <v>1</v>
+        <v>0.9335272727272728</v>
       </c>
       <c r="G51">
         <v>-917</v>
@@ -1586,22 +1586,22 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="3">
-        <v>45281</v>
+        <v>45311</v>
       </c>
       <c r="B52">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C52">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>-917</v>
       </c>
       <c r="E52">
-        <v>55000</v>
+        <v>50427</v>
       </c>
       <c r="F52" s="1">
-        <v>1</v>
+        <v>0.9168545454545455</v>
       </c>
       <c r="G52">
         <v>-917</v>
@@ -1609,22 +1609,22 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="3">
-        <v>45282</v>
+        <v>45312</v>
       </c>
       <c r="B53">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C53">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>-917</v>
       </c>
       <c r="E53">
-        <v>55000</v>
+        <v>49510</v>
       </c>
       <c r="F53" s="1">
-        <v>1</v>
+        <v>0.9001818181818182</v>
       </c>
       <c r="G53">
         <v>-917</v>
@@ -1632,22 +1632,22 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="3">
-        <v>45283</v>
+        <v>45313</v>
       </c>
       <c r="B54">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C54">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>-917</v>
       </c>
       <c r="E54">
-        <v>55000</v>
+        <v>48593</v>
       </c>
       <c r="F54" s="1">
-        <v>1</v>
+        <v>0.8835090909090909</v>
       </c>
       <c r="G54">
         <v>-917</v>
@@ -1655,22 +1655,22 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="3">
-        <v>45284</v>
+        <v>45314</v>
       </c>
       <c r="B55">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C55">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>-917</v>
       </c>
       <c r="E55">
-        <v>55000</v>
+        <v>47676</v>
       </c>
       <c r="F55" s="1">
-        <v>1</v>
+        <v>0.8668363636363636</v>
       </c>
       <c r="G55">
         <v>-917</v>
@@ -1678,22 +1678,22 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="3">
-        <v>45285</v>
+        <v>45315</v>
       </c>
       <c r="B56">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C56">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>-917</v>
       </c>
       <c r="E56">
-        <v>55000</v>
+        <v>46759</v>
       </c>
       <c r="F56" s="1">
-        <v>1</v>
+        <v>0.8501636363636363</v>
       </c>
       <c r="G56">
         <v>-917</v>
@@ -1701,22 +1701,22 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="3">
-        <v>45286</v>
+        <v>45316</v>
       </c>
       <c r="B57">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C57">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>-917</v>
       </c>
       <c r="E57">
-        <v>55000</v>
+        <v>45842</v>
       </c>
       <c r="F57" s="1">
-        <v>1</v>
+        <v>0.8334909090909091</v>
       </c>
       <c r="G57">
         <v>-917</v>
@@ -1724,22 +1724,22 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="3">
-        <v>45287</v>
+        <v>45317</v>
       </c>
       <c r="B58">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C58">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>-917</v>
       </c>
       <c r="E58">
-        <v>55000</v>
+        <v>44925</v>
       </c>
       <c r="F58" s="1">
-        <v>1</v>
+        <v>0.8168181818181818</v>
       </c>
       <c r="G58">
         <v>-917</v>
@@ -1747,22 +1747,22 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="3">
-        <v>45288</v>
+        <v>45318</v>
       </c>
       <c r="B59">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C59">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>-917</v>
       </c>
       <c r="E59">
-        <v>55000</v>
+        <v>44008</v>
       </c>
       <c r="F59" s="1">
-        <v>1</v>
+        <v>0.8001454545454545</v>
       </c>
       <c r="G59">
         <v>-917</v>
@@ -1770,22 +1770,22 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="3">
-        <v>45289</v>
+        <v>45319</v>
       </c>
       <c r="B60">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C60">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>-917</v>
       </c>
       <c r="E60">
-        <v>55000</v>
+        <v>43091</v>
       </c>
       <c r="F60" s="1">
-        <v>1</v>
+        <v>0.7834727272727273</v>
       </c>
       <c r="G60">
         <v>-917</v>
@@ -1793,22 +1793,22 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="3">
-        <v>45290</v>
+        <v>45320</v>
       </c>
       <c r="B61">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C61">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>-917</v>
       </c>
       <c r="E61">
-        <v>55000</v>
+        <v>42174</v>
       </c>
       <c r="F61" s="1">
-        <v>1</v>
+        <v>0.7668</v>
       </c>
       <c r="G61">
         <v>-917</v>
@@ -1816,22 +1816,22 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="3">
-        <v>45291</v>
+        <v>45321</v>
       </c>
       <c r="B62">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C62">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-917</v>
       </c>
       <c r="E62">
-        <v>55000</v>
+        <v>41257</v>
       </c>
       <c r="F62" s="1">
-        <v>1</v>
+        <v>0.7501272727272728</v>
       </c>
       <c r="G62">
         <v>-917</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="3">
-        <v>45292</v>
+        <v>45322</v>
       </c>
       <c r="B63">
         <v>2024</v>
@@ -1848,13 +1848,13 @@
         <v>1</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>-917</v>
       </c>
       <c r="E63">
-        <v>55000</v>
+        <v>40340</v>
       </c>
       <c r="F63" s="1">
-        <v>1</v>
+        <v>0.7334545454545455</v>
       </c>
       <c r="G63">
         <v>-917</v>
@@ -1862,22 +1862,22 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="3">
-        <v>45293</v>
+        <v>45323</v>
       </c>
       <c r="B64">
         <v>2024</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>-917</v>
       </c>
       <c r="E64">
-        <v>55000</v>
+        <v>39423</v>
       </c>
       <c r="F64" s="1">
-        <v>1</v>
+        <v>0.7167818181818182</v>
       </c>
       <c r="G64">
         <v>-917</v>
@@ -1885,22 +1885,22 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="3">
-        <v>45294</v>
+        <v>45324</v>
       </c>
       <c r="B65">
         <v>2024</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-917</v>
       </c>
       <c r="E65">
-        <v>55000</v>
+        <v>38506</v>
       </c>
       <c r="F65" s="1">
-        <v>1</v>
+        <v>0.7001090909090909</v>
       </c>
       <c r="G65">
         <v>-917</v>
@@ -1908,22 +1908,22 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="3">
-        <v>45295</v>
+        <v>45325</v>
       </c>
       <c r="B66">
         <v>2024</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>-917</v>
       </c>
       <c r="E66">
-        <v>55000</v>
+        <v>37589</v>
       </c>
       <c r="F66" s="1">
-        <v>1</v>
+        <v>0.6834363636363636</v>
       </c>
       <c r="G66">
         <v>-917</v>
@@ -1931,22 +1931,22 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="3">
-        <v>45296</v>
+        <v>45326</v>
       </c>
       <c r="B67">
         <v>2024</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>-917</v>
       </c>
       <c r="E67">
-        <v>55000</v>
+        <v>36672</v>
       </c>
       <c r="F67" s="1">
-        <v>1</v>
+        <v>0.6667636363636363</v>
       </c>
       <c r="G67">
         <v>-917</v>
@@ -1954,22 +1954,22 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="3">
-        <v>45297</v>
+        <v>45327</v>
       </c>
       <c r="B68">
         <v>2024</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>-917</v>
       </c>
       <c r="E68">
-        <v>55000</v>
+        <v>35755</v>
       </c>
       <c r="F68" s="1">
-        <v>1</v>
+        <v>0.6500909090909091</v>
       </c>
       <c r="G68">
         <v>-917</v>
@@ -1977,22 +1977,22 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="3">
-        <v>45298</v>
+        <v>45328</v>
       </c>
       <c r="B69">
         <v>2024</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>-917</v>
       </c>
       <c r="E69">
-        <v>55000</v>
+        <v>34838</v>
       </c>
       <c r="F69" s="1">
-        <v>1</v>
+        <v>0.6334181818181818</v>
       </c>
       <c r="G69">
         <v>-917</v>
@@ -2000,22 +2000,22 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="3">
-        <v>45299</v>
+        <v>45329</v>
       </c>
       <c r="B70">
         <v>2024</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>-917</v>
       </c>
       <c r="E70">
-        <v>55000</v>
+        <v>33921</v>
       </c>
       <c r="F70" s="1">
-        <v>1</v>
+        <v>0.6167454545454546</v>
       </c>
       <c r="G70">
         <v>-917</v>
@@ -2023,22 +2023,22 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="3">
-        <v>45300</v>
+        <v>45330</v>
       </c>
       <c r="B71">
         <v>2024</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>-917</v>
       </c>
       <c r="E71">
-        <v>55000</v>
+        <v>33004</v>
       </c>
       <c r="F71" s="1">
-        <v>1</v>
+        <v>0.6000727272727273</v>
       </c>
       <c r="G71">
         <v>-917</v>
@@ -2046,22 +2046,22 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="3">
-        <v>45301</v>
+        <v>45331</v>
       </c>
       <c r="B72">
         <v>2024</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>-917</v>
       </c>
       <c r="E72">
-        <v>55000</v>
+        <v>32087</v>
       </c>
       <c r="F72" s="1">
-        <v>1</v>
+        <v>0.5834</v>
       </c>
       <c r="G72">
         <v>-917</v>
@@ -2069,22 +2069,22 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="3">
-        <v>45302</v>
+        <v>45332</v>
       </c>
       <c r="B73">
         <v>2024</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>-917</v>
       </c>
       <c r="E73">
-        <v>55000</v>
+        <v>31170</v>
       </c>
       <c r="F73" s="1">
-        <v>1</v>
+        <v>0.5667272727272727</v>
       </c>
       <c r="G73">
         <v>-917</v>
@@ -2092,22 +2092,22 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="3">
-        <v>45303</v>
+        <v>45333</v>
       </c>
       <c r="B74">
         <v>2024</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>-917</v>
       </c>
       <c r="E74">
-        <v>55000</v>
+        <v>30253</v>
       </c>
       <c r="F74" s="1">
-        <v>1</v>
+        <v>0.5500545454545455</v>
       </c>
       <c r="G74">
         <v>-917</v>
@@ -2115,22 +2115,22 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="3">
-        <v>45304</v>
+        <v>45334</v>
       </c>
       <c r="B75">
         <v>2024</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>-917</v>
       </c>
       <c r="E75">
-        <v>55000</v>
+        <v>29336</v>
       </c>
       <c r="F75" s="1">
-        <v>1</v>
+        <v>0.5333818181818182</v>
       </c>
       <c r="G75">
         <v>-917</v>
@@ -2138,22 +2138,22 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="3">
-        <v>45305</v>
+        <v>45335</v>
       </c>
       <c r="B76">
         <v>2024</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>-917</v>
       </c>
       <c r="E76">
-        <v>55000</v>
+        <v>28419</v>
       </c>
       <c r="F76" s="1">
-        <v>1</v>
+        <v>0.5167090909090909</v>
       </c>
       <c r="G76">
         <v>-917</v>
@@ -2161,22 +2161,22 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="3">
-        <v>45306</v>
+        <v>45336</v>
       </c>
       <c r="B77">
         <v>2024</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D77">
         <v>-917</v>
       </c>
       <c r="E77">
-        <v>54083</v>
+        <v>27502</v>
       </c>
       <c r="F77" s="1">
-        <v>0.9833272727272727</v>
+        <v>0.5000363636363636</v>
       </c>
       <c r="G77">
         <v>-917</v>
@@ -2184,22 +2184,22 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="3">
-        <v>45307</v>
+        <v>45337</v>
       </c>
       <c r="B78">
         <v>2024</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D78">
-        <v>-911</v>
+        <v>-917</v>
       </c>
       <c r="E78">
-        <v>53172</v>
+        <v>26585</v>
       </c>
       <c r="F78" s="1">
-        <v>0.9667636363636364</v>
+        <v>0.4833636363636364</v>
       </c>
       <c r="G78">
         <v>-917</v>
@@ -2207,22 +2207,22 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="3">
-        <v>45308</v>
+        <v>45338</v>
       </c>
       <c r="B79">
         <v>2024</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D79">
         <v>-917</v>
       </c>
       <c r="E79">
-        <v>52255</v>
+        <v>25668</v>
       </c>
       <c r="F79" s="1">
-        <v>0.9500909090909091</v>
+        <v>0.4666909090909091</v>
       </c>
       <c r="G79">
         <v>-917</v>
@@ -2230,22 +2230,22 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="3">
-        <v>45309</v>
+        <v>45339</v>
       </c>
       <c r="B80">
         <v>2024</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D80">
         <v>-917</v>
       </c>
       <c r="E80">
-        <v>51338</v>
+        <v>24751</v>
       </c>
       <c r="F80" s="1">
-        <v>0.9334181818181818</v>
+        <v>0.4500181818181818</v>
       </c>
       <c r="G80">
         <v>-917</v>
@@ -2253,22 +2253,22 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="3">
-        <v>45310</v>
+        <v>45340</v>
       </c>
       <c r="B81">
         <v>2024</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D81">
         <v>-917</v>
       </c>
       <c r="E81">
-        <v>50421</v>
+        <v>23834</v>
       </c>
       <c r="F81" s="1">
-        <v>0.9167454545454545</v>
+        <v>0.4333454545454545</v>
       </c>
       <c r="G81">
         <v>-917</v>
@@ -2276,22 +2276,22 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="3">
-        <v>45311</v>
+        <v>45341</v>
       </c>
       <c r="B82">
         <v>2024</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-917</v>
       </c>
       <c r="E82">
-        <v>50421</v>
+        <v>22917</v>
       </c>
       <c r="F82" s="1">
-        <v>0.9167454545454545</v>
+        <v>0.4166727272727273</v>
       </c>
       <c r="G82">
         <v>-917</v>
@@ -2299,22 +2299,22 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="3">
-        <v>45312</v>
+        <v>45342</v>
       </c>
       <c r="B83">
         <v>2024</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D83">
         <v>-917</v>
       </c>
       <c r="E83">
-        <v>49504</v>
+        <v>22000</v>
       </c>
       <c r="F83" s="1">
-        <v>0.9000727272727272</v>
+        <v>0.4</v>
       </c>
       <c r="G83">
         <v>-917</v>
@@ -2322,712 +2322,712 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="3">
-        <v>45313</v>
+        <v>45343</v>
       </c>
       <c r="B84">
         <v>2024</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D84">
-        <v>-917</v>
+        <v>-550</v>
       </c>
       <c r="E84">
-        <v>48587</v>
+        <v>21450</v>
       </c>
       <c r="F84" s="1">
-        <v>0.8834</v>
+        <v>0.39</v>
       </c>
       <c r="G84">
-        <v>-917</v>
+        <v>-550.1999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="3">
-        <v>45314</v>
+        <v>45344</v>
       </c>
       <c r="B85">
         <v>2024</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D85">
-        <v>-917</v>
+        <v>-550</v>
       </c>
       <c r="E85">
-        <v>47670</v>
+        <v>20900</v>
       </c>
       <c r="F85" s="1">
-        <v>0.8667272727272727</v>
+        <v>0.38</v>
       </c>
       <c r="G85">
-        <v>-917</v>
+        <v>-550.1999999999999</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="3">
-        <v>45315</v>
+        <v>45345</v>
       </c>
       <c r="B86">
         <v>2024</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D86">
-        <v>-917</v>
+        <v>-550</v>
       </c>
       <c r="E86">
-        <v>46753</v>
+        <v>20350</v>
       </c>
       <c r="F86" s="1">
-        <v>0.8500545454545455</v>
+        <v>0.37</v>
       </c>
       <c r="G86">
-        <v>-917</v>
+        <v>-550.1999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="3">
-        <v>45316</v>
+        <v>45346</v>
       </c>
       <c r="B87">
         <v>2024</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D87">
-        <v>-917</v>
+        <v>-550</v>
       </c>
       <c r="E87">
-        <v>45836</v>
+        <v>19800</v>
       </c>
       <c r="F87" s="1">
-        <v>0.8333818181818182</v>
+        <v>0.36</v>
       </c>
       <c r="G87">
-        <v>-917</v>
+        <v>-550.1999999999999</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="3">
-        <v>45317</v>
+        <v>45347</v>
       </c>
       <c r="B88">
         <v>2024</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D88">
-        <v>-917</v>
+        <v>-550</v>
       </c>
       <c r="E88">
-        <v>44919</v>
+        <v>19250</v>
       </c>
       <c r="F88" s="1">
-        <v>0.8167090909090909</v>
+        <v>0.35</v>
       </c>
       <c r="G88">
-        <v>-917</v>
+        <v>-550.1999999999999</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="3">
-        <v>45318</v>
+        <v>45348</v>
       </c>
       <c r="B89">
         <v>2024</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D89">
-        <v>-917</v>
+        <v>-550</v>
       </c>
       <c r="E89">
-        <v>44002</v>
+        <v>18700</v>
       </c>
       <c r="F89" s="1">
-        <v>0.8000363636363637</v>
+        <v>0.34</v>
       </c>
       <c r="G89">
-        <v>-917</v>
+        <v>-550.1999999999999</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="3">
-        <v>45319</v>
+        <v>45349</v>
       </c>
       <c r="B90">
         <v>2024</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D90">
-        <v>-917</v>
+        <v>-550</v>
       </c>
       <c r="E90">
-        <v>43085</v>
+        <v>18150</v>
       </c>
       <c r="F90" s="1">
-        <v>0.7833636363636364</v>
+        <v>0.33</v>
       </c>
       <c r="G90">
-        <v>-917</v>
+        <v>-550.1999999999999</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="3">
-        <v>45320</v>
+        <v>45350</v>
       </c>
       <c r="B91">
         <v>2024</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D91">
-        <v>-917</v>
+        <v>-550</v>
       </c>
       <c r="E91">
-        <v>42168</v>
+        <v>17600</v>
       </c>
       <c r="F91" s="1">
-        <v>0.7666909090909091</v>
+        <v>0.32</v>
       </c>
       <c r="G91">
-        <v>-917</v>
+        <v>-550.1999999999999</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="3">
-        <v>45321</v>
+        <v>45351</v>
       </c>
       <c r="B92">
         <v>2024</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D92">
-        <v>-917</v>
+        <v>-550</v>
       </c>
       <c r="E92">
-        <v>41251</v>
+        <v>17050</v>
       </c>
       <c r="F92" s="1">
-        <v>0.7500181818181818</v>
+        <v>0.31</v>
       </c>
       <c r="G92">
-        <v>-917</v>
+        <v>-550.1999999999999</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="3">
-        <v>45322</v>
+        <v>45352</v>
       </c>
       <c r="B93">
         <v>2024</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D93">
-        <v>-917</v>
+        <v>-550</v>
       </c>
       <c r="E93">
-        <v>40334</v>
+        <v>16500</v>
       </c>
       <c r="F93" s="1">
-        <v>0.7333454545454545</v>
+        <v>0.3</v>
       </c>
       <c r="G93">
-        <v>-917</v>
+        <v>-550.1999999999999</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="3">
-        <v>45323</v>
+        <v>45353</v>
       </c>
       <c r="B94">
         <v>2024</v>
       </c>
       <c r="C94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94">
-        <v>-917</v>
+        <v>-550</v>
       </c>
       <c r="E94">
-        <v>39417</v>
+        <v>15950</v>
       </c>
       <c r="F94" s="1">
-        <v>0.7166727272727272</v>
+        <v>0.29</v>
       </c>
       <c r="G94">
-        <v>-917</v>
+        <v>-550.1999999999999</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="3">
-        <v>45324</v>
+        <v>45354</v>
       </c>
       <c r="B95">
         <v>2024</v>
       </c>
       <c r="C95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95">
-        <v>-917</v>
+        <v>-550</v>
       </c>
       <c r="E95">
-        <v>38500</v>
+        <v>15400</v>
       </c>
       <c r="F95" s="1">
-        <v>0.7</v>
+        <v>0.28</v>
       </c>
       <c r="G95">
-        <v>-917</v>
+        <v>-550.1999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="3">
-        <v>45325</v>
+        <v>45355</v>
       </c>
       <c r="B96">
         <v>2024</v>
       </c>
       <c r="C96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96">
-        <v>-917</v>
+        <v>-550</v>
       </c>
       <c r="E96">
-        <v>37583</v>
+        <v>14850</v>
       </c>
       <c r="F96" s="1">
-        <v>0.6833272727272727</v>
+        <v>0.27</v>
       </c>
       <c r="G96">
-        <v>-917</v>
+        <v>-550.1999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="3">
-        <v>45326</v>
+        <v>45356</v>
       </c>
       <c r="B97">
         <v>2024</v>
       </c>
       <c r="C97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97">
-        <v>-917</v>
+        <v>-550</v>
       </c>
       <c r="E97">
-        <v>36666</v>
+        <v>14300</v>
       </c>
       <c r="F97" s="1">
-        <v>0.6666545454545455</v>
+        <v>0.26</v>
       </c>
       <c r="G97">
-        <v>-917</v>
+        <v>-550.1999999999999</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="3">
-        <v>45327</v>
+        <v>45357</v>
       </c>
       <c r="B98">
         <v>2024</v>
       </c>
       <c r="C98">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98">
-        <v>-917</v>
+        <v>-550</v>
       </c>
       <c r="E98">
-        <v>35749</v>
+        <v>13750</v>
       </c>
       <c r="F98" s="1">
-        <v>0.6499818181818182</v>
+        <v>0.25</v>
       </c>
       <c r="G98">
-        <v>-917</v>
+        <v>-550.1999999999999</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="3">
-        <v>45328</v>
+        <v>45358</v>
       </c>
       <c r="B99">
         <v>2024</v>
       </c>
       <c r="C99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99">
-        <v>-917</v>
+        <v>-550</v>
       </c>
       <c r="E99">
-        <v>34832</v>
+        <v>13200</v>
       </c>
       <c r="F99" s="1">
-        <v>0.6333090909090909</v>
+        <v>0.24</v>
       </c>
       <c r="G99">
-        <v>-917</v>
+        <v>-550.1999999999999</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="3">
-        <v>45329</v>
+        <v>45359</v>
       </c>
       <c r="B100">
         <v>2024</v>
       </c>
       <c r="C100">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100">
-        <v>-917</v>
+        <v>-550</v>
       </c>
       <c r="E100">
-        <v>33915</v>
+        <v>12650</v>
       </c>
       <c r="F100" s="1">
-        <v>0.6166363636363636</v>
+        <v>0.23</v>
       </c>
       <c r="G100">
-        <v>-917</v>
+        <v>-550.1999999999999</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="3">
-        <v>45330</v>
+        <v>45360</v>
       </c>
       <c r="B101">
         <v>2024</v>
       </c>
       <c r="C101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101">
-        <v>-917</v>
+        <v>-550</v>
       </c>
       <c r="E101">
-        <v>32998</v>
+        <v>12100</v>
       </c>
       <c r="F101" s="1">
-        <v>0.5999636363636364</v>
+        <v>0.22</v>
       </c>
       <c r="G101">
-        <v>-917</v>
+        <v>-550.1999999999999</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="3">
-        <v>45331</v>
+        <v>45361</v>
       </c>
       <c r="B102">
         <v>2024</v>
       </c>
       <c r="C102">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D102">
-        <v>-917</v>
+        <v>-550</v>
       </c>
       <c r="E102">
-        <v>32081</v>
+        <v>11550</v>
       </c>
       <c r="F102" s="1">
-        <v>0.5832909090909091</v>
+        <v>0.21</v>
       </c>
       <c r="G102">
-        <v>-917</v>
+        <v>-550.1999999999999</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="3">
-        <v>45332</v>
+        <v>45362</v>
       </c>
       <c r="B103">
         <v>2024</v>
       </c>
       <c r="C103">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D103">
-        <v>-917</v>
+        <v>-550</v>
       </c>
       <c r="E103">
-        <v>31164</v>
+        <v>11000</v>
       </c>
       <c r="F103" s="1">
-        <v>0.5666181818181818</v>
+        <v>0.2</v>
       </c>
       <c r="G103">
-        <v>-917</v>
+        <v>-550.1999999999999</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="3">
-        <v>45333</v>
+        <v>45363</v>
       </c>
       <c r="B104">
         <v>2024</v>
       </c>
       <c r="C104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D104">
-        <v>-917</v>
+        <v>-550</v>
       </c>
       <c r="E104">
-        <v>30247</v>
+        <v>10450</v>
       </c>
       <c r="F104" s="1">
-        <v>0.5499454545454545</v>
+        <v>0.19</v>
       </c>
       <c r="G104">
-        <v>-917</v>
+        <v>-550.1999999999999</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="3">
-        <v>45334</v>
+        <v>45364</v>
       </c>
       <c r="B105">
         <v>2024</v>
       </c>
       <c r="C105">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D105">
-        <v>-917</v>
+        <v>-550</v>
       </c>
       <c r="E105">
-        <v>29330</v>
+        <v>9900</v>
       </c>
       <c r="F105" s="1">
-        <v>0.5332727272727272</v>
+        <v>0.18</v>
       </c>
       <c r="G105">
-        <v>-917</v>
+        <v>-550.1999999999999</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="3">
-        <v>45335</v>
+        <v>45365</v>
       </c>
       <c r="B106">
         <v>2024</v>
       </c>
       <c r="C106">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D106">
-        <v>-917</v>
+        <v>-550</v>
       </c>
       <c r="E106">
-        <v>28413</v>
+        <v>9350</v>
       </c>
       <c r="F106" s="1">
-        <v>0.5165999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="G106">
-        <v>-917</v>
+        <v>-550.1999999999999</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="3">
-        <v>45336</v>
+        <v>45366</v>
       </c>
       <c r="B107">
         <v>2024</v>
       </c>
       <c r="C107">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D107">
-        <v>-917</v>
+        <v>-550</v>
       </c>
       <c r="E107">
-        <v>27496</v>
+        <v>8800</v>
       </c>
       <c r="F107" s="1">
-        <v>0.4999272727272727</v>
+        <v>0.16</v>
       </c>
       <c r="G107">
-        <v>-917</v>
+        <v>-550.1999999999999</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="3">
-        <v>45337</v>
+        <v>45367</v>
       </c>
       <c r="B108">
         <v>2024</v>
       </c>
       <c r="C108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D108">
-        <v>-917</v>
+        <v>-550</v>
       </c>
       <c r="E108">
-        <v>26579</v>
+        <v>8250</v>
       </c>
       <c r="F108" s="1">
-        <v>0.4832545454545454</v>
+        <v>0.15</v>
       </c>
       <c r="G108">
-        <v>-917</v>
+        <v>-550.1999999999999</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="3">
-        <v>45338</v>
+        <v>45368</v>
       </c>
       <c r="B109">
         <v>2024</v>
       </c>
       <c r="C109">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D109">
-        <v>-917</v>
+        <v>-550</v>
       </c>
       <c r="E109">
-        <v>25662</v>
+        <v>7700</v>
       </c>
       <c r="F109" s="1">
-        <v>0.4665818181818182</v>
+        <v>0.14</v>
       </c>
       <c r="G109">
-        <v>-917</v>
+        <v>-550.1999999999999</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="3">
-        <v>45339</v>
+        <v>45369</v>
       </c>
       <c r="B110">
         <v>2024</v>
       </c>
       <c r="C110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D110">
-        <v>-917</v>
+        <v>-550</v>
       </c>
       <c r="E110">
-        <v>24745</v>
+        <v>7150</v>
       </c>
       <c r="F110" s="1">
-        <v>0.4499090909090909</v>
+        <v>0.13</v>
       </c>
       <c r="G110">
-        <v>-917</v>
+        <v>-550.1999999999999</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="3">
-        <v>45340</v>
+        <v>45370</v>
       </c>
       <c r="B111">
         <v>2024</v>
       </c>
       <c r="C111">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D111">
-        <v>-917</v>
+        <v>-550</v>
       </c>
       <c r="E111">
-        <v>23828</v>
+        <v>6600</v>
       </c>
       <c r="F111" s="1">
-        <v>0.4332363636363636</v>
+        <v>0.12</v>
       </c>
       <c r="G111">
-        <v>-917</v>
+        <v>-550.1999999999999</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="3">
-        <v>45341</v>
+        <v>45371</v>
       </c>
       <c r="B112">
         <v>2024</v>
       </c>
       <c r="C112">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D112">
-        <v>-917</v>
+        <v>-550</v>
       </c>
       <c r="E112">
-        <v>22911</v>
+        <v>6050</v>
       </c>
       <c r="F112" s="1">
-        <v>0.4165636363636364</v>
+        <v>0.11</v>
       </c>
       <c r="G112">
-        <v>-917</v>
+        <v>-550.1999999999999</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="3">
-        <v>45342</v>
+        <v>45372</v>
       </c>
       <c r="B113">
         <v>2024</v>
       </c>
       <c r="C113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D113">
-        <v>-911</v>
+        <v>-550</v>
       </c>
       <c r="E113">
-        <v>22000</v>
+        <v>5500</v>
       </c>
       <c r="F113" s="1">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="G113">
-        <v>-917</v>
+        <v>-550.1999999999999</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="3">
-        <v>45343</v>
+        <v>45373</v>
       </c>
       <c r="B114">
         <v>2024</v>
       </c>
       <c r="C114">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D114">
         <v>-550</v>
       </c>
       <c r="E114">
-        <v>21450</v>
+        <v>4950</v>
       </c>
       <c r="F114" s="1">
-        <v>0.39</v>
+        <v>0.09</v>
       </c>
       <c r="G114">
         <v>-550.1999999999999</v>
@@ -3035,22 +3035,22 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="3">
-        <v>45344</v>
+        <v>45374</v>
       </c>
       <c r="B115">
         <v>2024</v>
       </c>
       <c r="C115">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D115">
         <v>-550</v>
       </c>
       <c r="E115">
-        <v>20900</v>
+        <v>4400</v>
       </c>
       <c r="F115" s="1">
-        <v>0.38</v>
+        <v>0.08</v>
       </c>
       <c r="G115">
         <v>-550.1999999999999</v>
@@ -3058,22 +3058,22 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="3">
-        <v>45345</v>
+        <v>45375</v>
       </c>
       <c r="B116">
         <v>2024</v>
       </c>
       <c r="C116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D116">
         <v>-550</v>
       </c>
       <c r="E116">
-        <v>20350</v>
+        <v>3850</v>
       </c>
       <c r="F116" s="1">
-        <v>0.37</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G116">
         <v>-550.1999999999999</v>
@@ -3081,22 +3081,22 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="3">
-        <v>45346</v>
+        <v>45376</v>
       </c>
       <c r="B117">
         <v>2024</v>
       </c>
       <c r="C117">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D117">
         <v>-550</v>
       </c>
       <c r="E117">
-        <v>19800</v>
+        <v>3300</v>
       </c>
       <c r="F117" s="1">
-        <v>0.36</v>
+        <v>0.06</v>
       </c>
       <c r="G117">
         <v>-550.1999999999999</v>
@@ -3104,22 +3104,22 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="3">
-        <v>45347</v>
+        <v>45377</v>
       </c>
       <c r="B118">
         <v>2024</v>
       </c>
       <c r="C118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D118">
         <v>-550</v>
       </c>
       <c r="E118">
-        <v>19250</v>
+        <v>2750</v>
       </c>
       <c r="F118" s="1">
-        <v>0.35</v>
+        <v>0.05</v>
       </c>
       <c r="G118">
         <v>-550.1999999999999</v>
@@ -3127,22 +3127,22 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="3">
-        <v>45348</v>
+        <v>45378</v>
       </c>
       <c r="B119">
         <v>2024</v>
       </c>
       <c r="C119">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D119">
         <v>-550</v>
       </c>
       <c r="E119">
-        <v>18700</v>
+        <v>2200</v>
       </c>
       <c r="F119" s="1">
-        <v>0.34</v>
+        <v>0.04</v>
       </c>
       <c r="G119">
         <v>-550.1999999999999</v>
@@ -3150,22 +3150,22 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="3">
-        <v>45349</v>
+        <v>45379</v>
       </c>
       <c r="B120">
         <v>2024</v>
       </c>
       <c r="C120">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D120">
         <v>-550</v>
       </c>
       <c r="E120">
-        <v>18150</v>
+        <v>1650</v>
       </c>
       <c r="F120" s="1">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="G120">
         <v>-550.1999999999999</v>
@@ -3173,22 +3173,22 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="3">
-        <v>45350</v>
+        <v>45380</v>
       </c>
       <c r="B121">
         <v>2024</v>
       </c>
       <c r="C121">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D121">
         <v>-550</v>
       </c>
       <c r="E121">
-        <v>17600</v>
+        <v>1100</v>
       </c>
       <c r="F121" s="1">
-        <v>0.32</v>
+        <v>0.02</v>
       </c>
       <c r="G121">
         <v>-550.1999999999999</v>
@@ -3196,22 +3196,22 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="3">
-        <v>45351</v>
+        <v>45381</v>
       </c>
       <c r="B122">
         <v>2024</v>
       </c>
       <c r="C122">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D122">
         <v>-550</v>
       </c>
       <c r="E122">
-        <v>17050</v>
+        <v>550</v>
       </c>
       <c r="F122" s="1">
-        <v>0.31</v>
+        <v>0.01</v>
       </c>
       <c r="G122">
         <v>-550.1999999999999</v>
@@ -3219,7 +3219,7 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="3">
-        <v>45352</v>
+        <v>45382</v>
       </c>
       <c r="B123">
         <v>2024</v>
@@ -3231,702 +3231,12 @@
         <v>-550</v>
       </c>
       <c r="E123">
-        <v>16500</v>
+        <v>0</v>
       </c>
       <c r="F123" s="1">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G123">
-        <v>-550.1999999999999</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
-      <c r="A124" s="3">
-        <v>45353</v>
-      </c>
-      <c r="B124">
-        <v>2024</v>
-      </c>
-      <c r="C124">
-        <v>3</v>
-      </c>
-      <c r="D124">
-        <v>-550</v>
-      </c>
-      <c r="E124">
-        <v>15950</v>
-      </c>
-      <c r="F124" s="1">
-        <v>0.29</v>
-      </c>
-      <c r="G124">
-        <v>-550.1999999999999</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
-      <c r="A125" s="3">
-        <v>45354</v>
-      </c>
-      <c r="B125">
-        <v>2024</v>
-      </c>
-      <c r="C125">
-        <v>3</v>
-      </c>
-      <c r="D125">
-        <v>-550</v>
-      </c>
-      <c r="E125">
-        <v>15400</v>
-      </c>
-      <c r="F125" s="1">
-        <v>0.28</v>
-      </c>
-      <c r="G125">
-        <v>-550.1999999999999</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
-      <c r="A126" s="3">
-        <v>45355</v>
-      </c>
-      <c r="B126">
-        <v>2024</v>
-      </c>
-      <c r="C126">
-        <v>3</v>
-      </c>
-      <c r="D126">
-        <v>-550</v>
-      </c>
-      <c r="E126">
-        <v>14850</v>
-      </c>
-      <c r="F126" s="1">
-        <v>0.27</v>
-      </c>
-      <c r="G126">
-        <v>-550.1999999999999</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
-      <c r="A127" s="3">
-        <v>45356</v>
-      </c>
-      <c r="B127">
-        <v>2024</v>
-      </c>
-      <c r="C127">
-        <v>3</v>
-      </c>
-      <c r="D127">
-        <v>-550</v>
-      </c>
-      <c r="E127">
-        <v>14300</v>
-      </c>
-      <c r="F127" s="1">
-        <v>0.26</v>
-      </c>
-      <c r="G127">
-        <v>-550.1999999999999</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
-      <c r="A128" s="3">
-        <v>45357</v>
-      </c>
-      <c r="B128">
-        <v>2024</v>
-      </c>
-      <c r="C128">
-        <v>3</v>
-      </c>
-      <c r="D128">
-        <v>-550</v>
-      </c>
-      <c r="E128">
-        <v>13750</v>
-      </c>
-      <c r="F128" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="G128">
-        <v>-550.1999999999999</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
-      <c r="A129" s="3">
-        <v>45358</v>
-      </c>
-      <c r="B129">
-        <v>2024</v>
-      </c>
-      <c r="C129">
-        <v>3</v>
-      </c>
-      <c r="D129">
-        <v>-550</v>
-      </c>
-      <c r="E129">
-        <v>13200</v>
-      </c>
-      <c r="F129" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="G129">
-        <v>-550.1999999999999</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
-      <c r="A130" s="3">
-        <v>45359</v>
-      </c>
-      <c r="B130">
-        <v>2024</v>
-      </c>
-      <c r="C130">
-        <v>3</v>
-      </c>
-      <c r="D130">
-        <v>-550</v>
-      </c>
-      <c r="E130">
-        <v>12650</v>
-      </c>
-      <c r="F130" s="1">
-        <v>0.23</v>
-      </c>
-      <c r="G130">
-        <v>-550.1999999999999</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
-      <c r="A131" s="3">
-        <v>45360</v>
-      </c>
-      <c r="B131">
-        <v>2024</v>
-      </c>
-      <c r="C131">
-        <v>3</v>
-      </c>
-      <c r="D131">
-        <v>-550</v>
-      </c>
-      <c r="E131">
-        <v>12100</v>
-      </c>
-      <c r="F131" s="1">
-        <v>0.22</v>
-      </c>
-      <c r="G131">
-        <v>-550.1999999999999</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
-      <c r="A132" s="3">
-        <v>45361</v>
-      </c>
-      <c r="B132">
-        <v>2024</v>
-      </c>
-      <c r="C132">
-        <v>3</v>
-      </c>
-      <c r="D132">
-        <v>-550</v>
-      </c>
-      <c r="E132">
-        <v>11550</v>
-      </c>
-      <c r="F132" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="G132">
-        <v>-550.1999999999999</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
-      <c r="A133" s="3">
-        <v>45362</v>
-      </c>
-      <c r="B133">
-        <v>2024</v>
-      </c>
-      <c r="C133">
-        <v>3</v>
-      </c>
-      <c r="D133">
-        <v>-550</v>
-      </c>
-      <c r="E133">
-        <v>11000</v>
-      </c>
-      <c r="F133" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="G133">
-        <v>-550.1999999999999</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
-      <c r="A134" s="3">
-        <v>45363</v>
-      </c>
-      <c r="B134">
-        <v>2024</v>
-      </c>
-      <c r="C134">
-        <v>3</v>
-      </c>
-      <c r="D134">
-        <v>-550</v>
-      </c>
-      <c r="E134">
-        <v>10450</v>
-      </c>
-      <c r="F134" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="G134">
-        <v>-550.1999999999999</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
-      <c r="A135" s="3">
-        <v>45364</v>
-      </c>
-      <c r="B135">
-        <v>2024</v>
-      </c>
-      <c r="C135">
-        <v>3</v>
-      </c>
-      <c r="D135">
-        <v>-550</v>
-      </c>
-      <c r="E135">
-        <v>9900</v>
-      </c>
-      <c r="F135" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="G135">
-        <v>-550.1999999999999</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
-      <c r="A136" s="3">
-        <v>45365</v>
-      </c>
-      <c r="B136">
-        <v>2024</v>
-      </c>
-      <c r="C136">
-        <v>3</v>
-      </c>
-      <c r="D136">
-        <v>-550</v>
-      </c>
-      <c r="E136">
-        <v>9350</v>
-      </c>
-      <c r="F136" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="G136">
-        <v>-550.1999999999999</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
-      <c r="A137" s="3">
-        <v>45366</v>
-      </c>
-      <c r="B137">
-        <v>2024</v>
-      </c>
-      <c r="C137">
-        <v>3</v>
-      </c>
-      <c r="D137">
-        <v>-550</v>
-      </c>
-      <c r="E137">
-        <v>8800</v>
-      </c>
-      <c r="F137" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="G137">
-        <v>-550.1999999999999</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
-      <c r="A138" s="3">
-        <v>45367</v>
-      </c>
-      <c r="B138">
-        <v>2024</v>
-      </c>
-      <c r="C138">
-        <v>3</v>
-      </c>
-      <c r="D138">
-        <v>-550</v>
-      </c>
-      <c r="E138">
-        <v>8250</v>
-      </c>
-      <c r="F138" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="G138">
-        <v>-550.1999999999999</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7">
-      <c r="A139" s="3">
-        <v>45368</v>
-      </c>
-      <c r="B139">
-        <v>2024</v>
-      </c>
-      <c r="C139">
-        <v>3</v>
-      </c>
-      <c r="D139">
-        <v>-550</v>
-      </c>
-      <c r="E139">
-        <v>7700</v>
-      </c>
-      <c r="F139" s="1">
-        <v>0.14</v>
-      </c>
-      <c r="G139">
-        <v>-550.1999999999999</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
-      <c r="A140" s="3">
-        <v>45369</v>
-      </c>
-      <c r="B140">
-        <v>2024</v>
-      </c>
-      <c r="C140">
-        <v>3</v>
-      </c>
-      <c r="D140">
-        <v>-550</v>
-      </c>
-      <c r="E140">
-        <v>7150</v>
-      </c>
-      <c r="F140" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="G140">
-        <v>-550.1999999999999</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7">
-      <c r="A141" s="3">
-        <v>45370</v>
-      </c>
-      <c r="B141">
-        <v>2024</v>
-      </c>
-      <c r="C141">
-        <v>3</v>
-      </c>
-      <c r="D141">
-        <v>-550</v>
-      </c>
-      <c r="E141">
-        <v>6600</v>
-      </c>
-      <c r="F141" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="G141">
-        <v>-550.1999999999999</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7">
-      <c r="A142" s="3">
-        <v>45371</v>
-      </c>
-      <c r="B142">
-        <v>2024</v>
-      </c>
-      <c r="C142">
-        <v>3</v>
-      </c>
-      <c r="D142">
-        <v>-550</v>
-      </c>
-      <c r="E142">
-        <v>6050</v>
-      </c>
-      <c r="F142" s="1">
-        <v>0.11</v>
-      </c>
-      <c r="G142">
-        <v>-550.1999999999999</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7">
-      <c r="A143" s="3">
-        <v>45372</v>
-      </c>
-      <c r="B143">
-        <v>2024</v>
-      </c>
-      <c r="C143">
-        <v>3</v>
-      </c>
-      <c r="D143">
-        <v>-550</v>
-      </c>
-      <c r="E143">
-        <v>5500</v>
-      </c>
-      <c r="F143" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="G143">
-        <v>-550.1999999999999</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7">
-      <c r="A144" s="3">
-        <v>45373</v>
-      </c>
-      <c r="B144">
-        <v>2024</v>
-      </c>
-      <c r="C144">
-        <v>3</v>
-      </c>
-      <c r="D144">
-        <v>-550</v>
-      </c>
-      <c r="E144">
-        <v>4950</v>
-      </c>
-      <c r="F144" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="G144">
-        <v>-550.1999999999999</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7">
-      <c r="A145" s="3">
-        <v>45374</v>
-      </c>
-      <c r="B145">
-        <v>2024</v>
-      </c>
-      <c r="C145">
-        <v>3</v>
-      </c>
-      <c r="D145">
-        <v>-550</v>
-      </c>
-      <c r="E145">
-        <v>4400</v>
-      </c>
-      <c r="F145" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="G145">
-        <v>-550.1999999999999</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7">
-      <c r="A146" s="3">
-        <v>45375</v>
-      </c>
-      <c r="B146">
-        <v>2024</v>
-      </c>
-      <c r="C146">
-        <v>3</v>
-      </c>
-      <c r="D146">
-        <v>-550</v>
-      </c>
-      <c r="E146">
-        <v>3850</v>
-      </c>
-      <c r="F146" s="1">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="G146">
-        <v>-550.1999999999999</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7">
-      <c r="A147" s="3">
-        <v>45376</v>
-      </c>
-      <c r="B147">
-        <v>2024</v>
-      </c>
-      <c r="C147">
-        <v>3</v>
-      </c>
-      <c r="D147">
-        <v>-550</v>
-      </c>
-      <c r="E147">
-        <v>3300</v>
-      </c>
-      <c r="F147" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="G147">
-        <v>-550.1999999999999</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7">
-      <c r="A148" s="3">
-        <v>45377</v>
-      </c>
-      <c r="B148">
-        <v>2024</v>
-      </c>
-      <c r="C148">
-        <v>3</v>
-      </c>
-      <c r="D148">
-        <v>-550</v>
-      </c>
-      <c r="E148">
-        <v>2750</v>
-      </c>
-      <c r="F148" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="G148">
-        <v>-550.1999999999999</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7">
-      <c r="A149" s="3">
-        <v>45378</v>
-      </c>
-      <c r="B149">
-        <v>2024</v>
-      </c>
-      <c r="C149">
-        <v>3</v>
-      </c>
-      <c r="D149">
-        <v>-550</v>
-      </c>
-      <c r="E149">
-        <v>2200</v>
-      </c>
-      <c r="F149" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="G149">
-        <v>-550.1999999999999</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7">
-      <c r="A150" s="3">
-        <v>45379</v>
-      </c>
-      <c r="B150">
-        <v>2024</v>
-      </c>
-      <c r="C150">
-        <v>3</v>
-      </c>
-      <c r="D150">
-        <v>-550</v>
-      </c>
-      <c r="E150">
-        <v>1650</v>
-      </c>
-      <c r="F150" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="G150">
-        <v>-550.1999999999999</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7">
-      <c r="A151" s="3">
-        <v>45380</v>
-      </c>
-      <c r="B151">
-        <v>2024</v>
-      </c>
-      <c r="C151">
-        <v>3</v>
-      </c>
-      <c r="D151">
-        <v>-550</v>
-      </c>
-      <c r="E151">
-        <v>1100</v>
-      </c>
-      <c r="F151" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="G151">
-        <v>-550.1999999999999</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7">
-      <c r="A152" s="3">
-        <v>45381</v>
-      </c>
-      <c r="B152">
-        <v>2024</v>
-      </c>
-      <c r="C152">
-        <v>3</v>
-      </c>
-      <c r="D152">
-        <v>-550</v>
-      </c>
-      <c r="E152">
-        <v>550</v>
-      </c>
-      <c r="F152" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="G152">
-        <v>-550.1999999999999</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7">
-      <c r="A153" s="3">
-        <v>45382</v>
-      </c>
-      <c r="B153">
-        <v>2024</v>
-      </c>
-      <c r="C153">
-        <v>3</v>
-      </c>
-      <c r="D153">
-        <v>-550</v>
-      </c>
-      <c r="E153">
-        <v>0</v>
-      </c>
-      <c r="F153" s="1">
-        <v>0</v>
-      </c>
-      <c r="G153">
         <v>-550.1999999999999</v>
       </c>
     </row>
@@ -3937,7 +3247,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3968,7 +3278,7 @@
         <v>2023</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -3982,19 +3292,19 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>-14660</v>
       </c>
       <c r="D3">
-        <v>55000</v>
+        <v>40340</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0.7334545454545455</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4002,16 +3312,16 @@
         <v>2024</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>-14666</v>
+        <v>-23290</v>
       </c>
       <c r="D4">
-        <v>40334</v>
+        <v>17050</v>
       </c>
       <c r="E4" s="1">
-        <v>0.7333454545454545</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4019,32 +3329,15 @@
         <v>2024</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>-23284</v>
+        <v>-17050</v>
       </c>
       <c r="D5">
-        <v>17050</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>2024</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>-17050</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
         <v>0</v>
       </c>
     </row>
